--- a/expressroute/er-ms-peering-azure-mng-portal/capture1-client.xlsx
+++ b/expressroute/er-ms-peering-azure-mng-portal/capture1-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\binfab\az-pattern\expressroute\er-ms-peering-azure-mng-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A50DC-94DA-4BB3-AF7D-73ECE261DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D495C8-6B4E-4855-8AC1-05927415B27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A5F4C2E2-2DD2-49EB-A2AF-359D754F71EB}"/>
   </bookViews>
@@ -1520,7 +1520,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>HTTP body traffic volume</a:t>
+              <a:t>HTTPS body traffic volume</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12594,7 +12594,7 @@
   <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
